--- a/source_code/data/results/[all]_#_inv_capacity.xlsx
+++ b/source_code/data/results/[all]_#_inv_capacity.xlsx
@@ -492,10 +492,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.05602014202366901</v>
+        <v>0.05596141487413827</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01694332300008439</v>
+        <v>0.00977503357332235</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1795388544357392</v>
+        <v>0.1867950638625013</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -519,7 +519,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.774868004651773</v>
+        <v>4.88010842141231</v>
       </c>
     </row>
   </sheetData>
@@ -595,7 +595,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.244554811391483</v>
+        <v>0.2383347130351714</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4447634174008636</v>
+        <v>0.4510881472103936</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>9.678720155011838</v>
+        <v>9.548860320090643</v>
       </c>
     </row>
   </sheetData>
@@ -698,7 +698,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1879007235847371</v>
+        <v>0.1685628396958557</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.68227937423846</v>
+        <v>0.6983946248447093</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>15.80904881179059</v>
+        <v>16.84294973600403</v>
       </c>
     </row>
   </sheetData>

--- a/source_code/data/results/[all]_#_inv_capacity.xlsx
+++ b/source_code/data/results/[all]_#_inv_capacity.xlsx
@@ -492,10 +492,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.05602014202366899</v>
+        <v>0.05596141487413829</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0169433230000916</v>
+        <v>0.00977503357332235</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -504,13 +504,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.179538854435732</v>
+        <v>0.1867950638625013</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.249489236137498</v>
+        <v>0.2494892361374987</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -519,7 +519,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.77486800465178</v>
+        <v>4.88010842141231</v>
       </c>
     </row>
   </sheetData>
@@ -595,7 +595,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2445548113914829</v>
+        <v>0.2383347130351717</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.444763417400864</v>
+        <v>0.4510881472103934</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>9.678720155011767</v>
+        <v>9.548860320090657</v>
       </c>
     </row>
   </sheetData>
@@ -698,7 +698,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1879007235847566</v>
+        <v>0.1685628396958568</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6822793742384641</v>
+        <v>0.6983946248447139</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>15.80904881179005</v>
+        <v>16.84294973600395</v>
       </c>
     </row>
   </sheetData>
